--- a/doc/BLE协议-V1.12.xlsx
+++ b/doc/BLE协议-V1.12.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitroot\sporthi\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19365" windowHeight="4200"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19365" windowHeight="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocol" sheetId="1" r:id="rId1"/>
@@ -2201,8 +2206,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3123,6 +3128,243 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3132,51 +3374,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3193,210 +3402,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3409,12 +3414,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3456,7 +3464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3488,9 +3496,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3522,6 +3548,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3697,17 +3741,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.625" style="51" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="51" customWidth="1"/>
@@ -3720,27 +3764,27 @@
     <col min="9" max="16384" width="9" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="74.25" customHeight="1" thickBot="1">
-      <c r="A1" s="159" t="s">
+    <row r="1" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-    </row>
-    <row r="2" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A2" s="142" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+    </row>
+    <row r="2" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="144"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="88"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -3760,14 +3804,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -3776,10 +3820,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A5" s="165"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="99"/>
+    <row r="5" spans="1:10" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="95"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3790,12 +3834,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="165"/>
-      <c r="B6" s="162" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" s="95"/>
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -3804,10 +3848,10 @@
       <c r="E6" s="2"/>
       <c r="F6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" thickBot="1">
-      <c r="A7" s="165"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="99"/>
+    <row r="7" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="84"/>
       <c r="D7" s="25" t="s">
         <v>100</v>
       </c>
@@ -3818,12 +3862,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="85"/>
-      <c r="B8" s="91" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="96"/>
+      <c r="B8" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="161" t="s">
+      <c r="C8" s="83" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -3832,10 +3876,10 @@
       <c r="E8" s="2"/>
       <c r="F8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="75.75" customHeight="1" thickBot="1">
-      <c r="A9" s="151"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="99"/>
+    <row r="9" spans="1:10" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="10" t="s">
         <v>34</v>
       </c>
@@ -3846,17 +3890,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A10" s="142" t="s">
+    <row r="10" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +3920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" thickBot="1">
+    <row r="12" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>13</v>
       </c>
@@ -3888,18 +3932,18 @@
       <c r="E12" s="30"/>
       <c r="F12" s="42"/>
     </row>
-    <row r="13" spans="1:10" ht="32.25" thickBot="1">
-      <c r="A13" s="142" t="s">
+    <row r="13" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
       <c r="J13" s="52"/>
     </row>
-    <row r="14" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>2</v>
       </c>
@@ -3919,14 +3963,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="83" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -3935,10 +3979,10 @@
       <c r="E15" s="8"/>
       <c r="F15" s="38"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" thickBot="1">
-      <c r="A16" s="84"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
+    <row r="16" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="158"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="18" t="s">
         <v>40</v>
       </c>
@@ -3949,12 +3993,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="85"/>
-      <c r="B17" s="91" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="96"/>
+      <c r="B17" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="17" t="s">
@@ -3963,10 +4007,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
+    <row r="18" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18" t="s">
         <v>37</v>
       </c>
@@ -3977,12 +4021,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="91" t="s">
+    <row r="19" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="96"/>
+      <c r="B19" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="18" t="s">
@@ -3991,10 +4035,10 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
     </row>
-    <row r="20" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
+    <row r="20" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="96"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="77"/>
       <c r="D20" s="57" t="s">
         <v>138</v>
       </c>
@@ -4005,12 +4049,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="85"/>
-      <c r="B21" s="91" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="96"/>
+      <c r="B21" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -4019,10 +4063,10 @@
       <c r="E21" s="8"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="96"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="77"/>
       <c r="D22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4033,12 +4077,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="85"/>
-      <c r="B23" s="91" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="96"/>
+      <c r="B23" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="76" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -4047,10 +4091,10 @@
       <c r="E23" s="8"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="96"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="77"/>
       <c r="D24" s="18" t="s">
         <v>126</v>
       </c>
@@ -4061,17 +4105,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A25" s="142" t="s">
+    <row r="25" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
-    </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+    </row>
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>2</v>
       </c>
@@ -4091,14 +4135,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="83" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -4107,10 +4151,10 @@
       <c r="E27" s="8"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6" ht="27">
-      <c r="A28" s="109"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="107"/>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="81"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="19" t="s">
         <v>46</v>
       </c>
@@ -4121,10 +4165,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A29" s="110"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="99"/>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="82"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="20" t="s">
         <v>45</v>
       </c>
@@ -4135,17 +4179,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A30" s="142" t="s">
+    <row r="30" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="144"/>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
+    </row>
+    <row r="31" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>2</v>
       </c>
@@ -4165,14 +4209,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="83" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C32" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -4181,10 +4225,10 @@
       <c r="E32" s="8"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="99"/>
+    <row r="33" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="20" t="s">
         <v>54</v>
       </c>
@@ -4195,17 +4239,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A34" s="142" t="s">
+    <row r="34" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="143"/>
-      <c r="C34" s="143"/>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="144"/>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
         <v>2</v>
       </c>
@@ -4225,14 +4269,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="83" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C36" s="76" t="s">
         <v>58</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -4241,10 +4285,10 @@
       <c r="E36" s="8"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6" ht="59.25" customHeight="1" thickBot="1">
-      <c r="A37" s="110"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="99"/>
+    <row r="37" spans="1:6" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="20" t="s">
         <v>59</v>
       </c>
@@ -4255,17 +4299,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A38" s="142" t="s">
+    <row r="38" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="144"/>
-    </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>2</v>
       </c>
@@ -4285,14 +4329,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="83" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C40" s="76" t="s">
         <v>61</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -4301,10 +4345,10 @@
       <c r="E40" s="8"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6" ht="60.75" customHeight="1" thickBot="1">
-      <c r="A41" s="110"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="99"/>
+    <row r="41" spans="1:6" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="84"/>
       <c r="D41" s="20" t="s">
         <v>59</v>
       </c>
@@ -4315,17 +4359,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A42" s="142" t="s">
+    <row r="42" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="147"/>
-    </row>
-    <row r="43" spans="1:6" s="65" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="99"/>
+    </row>
+    <row r="43" spans="1:6" s="65" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="65" t="s">
         <v>2</v>
       </c>
@@ -4342,14 +4386,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="148" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="162" t="s">
         <v>68</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -4358,10 +4402,10 @@
       <c r="E44" s="8"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6" ht="27">
-      <c r="A45" s="149"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="95"/>
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A45" s="101"/>
+      <c r="B45" s="160"/>
+      <c r="C45" s="163"/>
       <c r="D45" s="22" t="s">
         <v>20</v>
       </c>
@@ -4372,10 +4416,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="42" customHeight="1" thickBot="1">
-      <c r="A46" s="150"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="96"/>
+    <row r="46" spans="1:6" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="102"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="164"/>
       <c r="D46" s="21" t="s">
         <v>70</v>
       </c>
@@ -4386,12 +4430,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="85"/>
-      <c r="B47" s="91" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="96"/>
+      <c r="B47" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C47" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="9" t="s">
@@ -4400,10 +4444,10 @@
       <c r="E47" s="8"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6" ht="85.5" customHeight="1" thickBot="1">
-      <c r="A48" s="151"/>
-      <c r="B48" s="97"/>
-      <c r="C48" s="99"/>
+    <row r="48" spans="1:6" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="97"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="84"/>
       <c r="D48" s="20" t="s">
         <v>74</v>
       </c>
@@ -4414,17 +4458,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A49" s="142" t="s">
+    <row r="49" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="147"/>
-    </row>
-    <row r="50" spans="1:6" s="65" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="99"/>
+    </row>
+    <row r="50" spans="1:6" s="65" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="65" t="s">
         <v>231</v>
       </c>
@@ -4441,14 +4485,14 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="148" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="B51" s="148" t="s">
+      <c r="B51" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="C51" s="148" t="s">
+      <c r="C51" s="100" t="s">
         <v>238</v>
       </c>
       <c r="D51" s="9" t="s">
@@ -4457,10 +4501,10 @@
       <c r="E51" s="8"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6" ht="27">
-      <c r="A52" s="149"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
+    <row r="52" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="22" t="s">
         <v>20</v>
       </c>
@@ -4471,10 +4515,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="157.5" customHeight="1" thickBot="1">
-      <c r="A53" s="150"/>
-      <c r="B53" s="150"/>
-      <c r="C53" s="150"/>
+    <row r="53" spans="1:6" ht="157.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
       <c r="D53" s="21" t="s">
         <v>149</v>
       </c>
@@ -4485,12 +4529,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="85"/>
-      <c r="B54" s="148" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="96"/>
+      <c r="B54" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="C54" s="148" t="s">
+      <c r="C54" s="100" t="s">
         <v>240</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -4499,10 +4543,10 @@
       <c r="E54" s="8"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6" ht="106.5" customHeight="1" thickBot="1">
-      <c r="A55" s="151"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="149"/>
+    <row r="55" spans="1:6" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="97"/>
+      <c r="B55" s="101"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="20" t="s">
         <v>150</v>
       </c>
@@ -4513,17 +4557,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="32.25" thickBot="1">
-      <c r="A56" s="142" t="s">
+    <row r="56" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="147"/>
-    </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="99"/>
+    </row>
+    <row r="57" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>2</v>
       </c>
@@ -4541,14 +4585,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="83" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="103" t="s">
+      <c r="B58" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="98" t="s">
+      <c r="C58" s="76" t="s">
         <v>44</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -4557,10 +4601,10 @@
       <c r="E58" s="8"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="109"/>
-      <c r="B59" s="104"/>
-      <c r="C59" s="107"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="81"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="22" t="s">
         <v>22</v>
       </c>
@@ -4571,10 +4615,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="27">
-      <c r="A60" s="109"/>
-      <c r="B60" s="104"/>
-      <c r="C60" s="107"/>
+    <row r="60" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A60" s="81"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="22" t="s">
         <v>20</v>
       </c>
@@ -4585,10 +4629,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="302.25" customHeight="1" thickBot="1">
-      <c r="A61" s="109"/>
-      <c r="B61" s="105"/>
-      <c r="C61" s="108"/>
+    <row r="61" spans="1:6" ht="302.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="81"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="131"/>
       <c r="D61" s="20" t="s">
         <v>79</v>
       </c>
@@ -4599,12 +4643,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="109"/>
-      <c r="B62" s="103" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="81"/>
+      <c r="B62" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="106" t="s">
+      <c r="C62" s="104" t="s">
         <v>58</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -4613,10 +4657,10 @@
       <c r="E62" s="8"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="109"/>
-      <c r="B63" s="104"/>
-      <c r="C63" s="107"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="81"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="22" t="s">
         <v>22</v>
       </c>
@@ -4627,10 +4671,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.25" thickBot="1">
-      <c r="A64" s="109"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="153"/>
+    <row r="64" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="81"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="105"/>
       <c r="D64" s="20" t="s">
         <v>82</v>
       </c>
@@ -4641,12 +4685,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="109"/>
-      <c r="B65" s="103" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="81"/>
+      <c r="B65" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="106" t="s">
+      <c r="C65" s="104" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="9" t="s">
@@ -4655,10 +4699,10 @@
       <c r="E65" s="8"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="109"/>
-      <c r="B66" s="104"/>
-      <c r="C66" s="107"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66" s="81"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="85"/>
       <c r="D66" s="22" t="s">
         <v>22</v>
       </c>
@@ -4669,10 +4713,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1">
-      <c r="A67" s="109"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="108"/>
+    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="81"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="131"/>
       <c r="D67" s="20" t="s">
         <v>86</v>
       </c>
@@ -4683,12 +4727,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="109"/>
-      <c r="B68" s="103" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68" s="81"/>
+      <c r="B68" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="106" t="s">
+      <c r="C68" s="104" t="s">
         <v>107</v>
       </c>
       <c r="D68" s="9" t="s">
@@ -4697,10 +4741,10 @@
       <c r="E68" s="8"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="109"/>
-      <c r="B69" s="104"/>
-      <c r="C69" s="107"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69" s="81"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="85"/>
       <c r="D69" s="22" t="s">
         <v>22</v>
       </c>
@@ -4711,10 +4755,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A70" s="109"/>
-      <c r="B70" s="104"/>
-      <c r="C70" s="107"/>
+    <row r="70" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="81"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="85"/>
       <c r="D70" s="22" t="s">
         <v>20</v>
       </c>
@@ -4725,10 +4769,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="57.75" customHeight="1" thickBot="1">
-      <c r="A71" s="109"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="108"/>
+    <row r="71" spans="1:7" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="81"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="131"/>
       <c r="D71" s="20" t="s">
         <v>110</v>
       </c>
@@ -4739,12 +4783,12 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A72" s="109"/>
-      <c r="B72" s="103" t="s">
+    <row r="72" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="81"/>
+      <c r="B72" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="98" t="s">
+      <c r="C72" s="76" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="9" t="s">
@@ -4753,10 +4797,10 @@
       <c r="E72" s="8"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="109"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="158"/>
+    <row r="73" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="81"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="22" t="s">
         <v>22</v>
       </c>
@@ -4767,10 +4811,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A74" s="109"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="158"/>
+    <row r="74" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="81"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="22" t="s">
         <v>20</v>
       </c>
@@ -4781,69 +4825,69 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="294" customHeight="1">
-      <c r="A75" s="109"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="158"/>
-      <c r="D75" s="139" t="s">
+    <row r="75" spans="1:7" ht="294" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="81"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="137"/>
+      <c r="E75" s="138"/>
       <c r="F75" s="67" t="s">
         <v>243</v>
       </c>
       <c r="G75" s="62"/>
     </row>
-    <row r="76" spans="1:7" ht="192.75" customHeight="1" thickBot="1">
-      <c r="A76" s="109"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="158"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="138"/>
+    <row r="76" spans="1:7" ht="192.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="81"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="139"/>
       <c r="F76" s="68" t="s">
         <v>244</v>
       </c>
       <c r="G76" s="61"/>
     </row>
-    <row r="77" spans="1:7" ht="280.5" customHeight="1" thickBot="1">
-      <c r="A77" s="109"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="158"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="138"/>
+    <row r="77" spans="1:7" ht="280.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="81"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="151"/>
+      <c r="E77" s="139"/>
       <c r="F77" s="68" t="s">
         <v>245</v>
       </c>
       <c r="G77" s="61"/>
     </row>
-    <row r="78" spans="1:7" ht="354.75" customHeight="1" thickBot="1">
-      <c r="A78" s="109"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="138"/>
+    <row r="78" spans="1:7" ht="354.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="81"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="151"/>
+      <c r="E78" s="139"/>
       <c r="F78" s="68" t="s">
         <v>246</v>
       </c>
       <c r="G78" s="61"/>
     </row>
-    <row r="79" spans="1:7" ht="240.75" customHeight="1" thickBot="1">
-      <c r="A79" s="109"/>
-      <c r="B79" s="145"/>
-      <c r="C79" s="130"/>
-      <c r="D79" s="141"/>
+    <row r="79" spans="1:7" ht="240.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="81"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="152"/>
       <c r="E79" s="69"/>
       <c r="F79" s="68" t="s">
         <v>247</v>
       </c>
       <c r="G79" s="61"/>
     </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="109"/>
-      <c r="B80" s="103" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80" s="81"/>
+      <c r="B80" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="C80" s="106" t="s">
+      <c r="C80" s="104" t="s">
         <v>96</v>
       </c>
       <c r="D80" s="9" t="s">
@@ -4852,10 +4896,10 @@
       <c r="E80" s="8"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="109"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="107"/>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" s="81"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="85"/>
       <c r="D81" s="22" t="s">
         <v>22</v>
       </c>
@@ -4866,10 +4910,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="27">
-      <c r="A82" s="109"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="107"/>
+    <row r="82" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="81"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="85"/>
       <c r="D82" s="22" t="s">
         <v>20</v>
       </c>
@@ -4880,10 +4924,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="61.5" customHeight="1" thickBot="1">
-      <c r="A83" s="110"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="108"/>
+    <row r="83" spans="1:6" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="82"/>
+      <c r="B83" s="130"/>
+      <c r="C83" s="131"/>
       <c r="D83" s="20" t="s">
         <v>98</v>
       </c>
@@ -4894,355 +4938,419 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="87" spans="1:6" ht="14.25">
-      <c r="A87" s="100" t="s">
+    <row r="86" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A87" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="102"/>
-    </row>
-    <row r="88" spans="1:6" s="6" customFormat="1">
+      <c r="B87" s="122"/>
+      <c r="C87" s="122"/>
+      <c r="D87" s="122"/>
+      <c r="E87" s="122"/>
+      <c r="F87" s="123"/>
+    </row>
+    <row r="88" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="34" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="116" t="s">
+      <c r="C88" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="117"/>
-      <c r="E88" s="118"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="126"/>
       <c r="F88" s="48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="7" customFormat="1" ht="66" customHeight="1">
-      <c r="A89" s="74" t="s">
+    <row r="89" spans="1:6" s="7" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="C89" s="119" t="s">
+      <c r="C89" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="D89" s="120"/>
-      <c r="E89" s="121"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="137"/>
       <c r="F89" s="46" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="7" customFormat="1" ht="66" customHeight="1">
-      <c r="A90" s="75"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="124" t="s">
+    <row r="90" spans="1:6" s="7" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="154"/>
+      <c r="B90" s="156"/>
+      <c r="C90" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="125"/>
-      <c r="E90" s="126"/>
+      <c r="D90" s="110"/>
+      <c r="E90" s="111"/>
       <c r="F90" s="46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="7" customFormat="1" ht="57" customHeight="1">
-      <c r="A91" s="75"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="119" t="s">
+    <row r="91" spans="1:6" s="7" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="154"/>
+      <c r="B91" s="156"/>
+      <c r="C91" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="D91" s="120"/>
-      <c r="E91" s="121"/>
+      <c r="D91" s="136"/>
+      <c r="E91" s="137"/>
       <c r="F91" s="46" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="7" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A92" s="75"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="119" t="s">
+    <row r="92" spans="1:6" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="154"/>
+      <c r="B92" s="156"/>
+      <c r="C92" s="113" t="s">
         <v>225</v>
       </c>
-      <c r="D92" s="122"/>
-      <c r="E92" s="123"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="115"/>
       <c r="F92" s="46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="7" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A93" s="76"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="80" t="s">
+    <row r="93" spans="1:6" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="155"/>
+      <c r="B93" s="157"/>
+      <c r="C93" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="D93" s="81"/>
-      <c r="E93" s="82"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="149"/>
       <c r="F93" s="71" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="7" customFormat="1" ht="38.25" customHeight="1">
+    <row r="94" spans="1:6" s="7" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C94" s="119" t="s">
+      <c r="C94" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="D94" s="122"/>
-      <c r="E94" s="123"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="115"/>
       <c r="F94" s="46" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A95" s="86" t="s">
+    <row r="95" spans="1:6" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="D95" s="86"/>
-      <c r="E95" s="86"/>
-      <c r="F95" s="111" t="s">
+      <c r="D95" s="143"/>
+      <c r="E95" s="143"/>
+      <c r="F95" s="140" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A96" s="87"/>
-      <c r="B96" s="114"/>
-      <c r="C96" s="86" t="s">
+    <row r="96" spans="1:6" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="119"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="86"/>
-      <c r="E96" s="86"/>
-      <c r="F96" s="112"/>
-    </row>
-    <row r="97" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A97" s="87"/>
-      <c r="B97" s="115"/>
-      <c r="C97" s="86" t="s">
+      <c r="D96" s="143"/>
+      <c r="E96" s="143"/>
+      <c r="F96" s="141"/>
+    </row>
+    <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="119"/>
+      <c r="B97" s="146"/>
+      <c r="C97" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
-      <c r="F97" s="112"/>
-    </row>
-    <row r="98" spans="1:6" ht="74.25" customHeight="1">
-      <c r="A98" s="88"/>
+      <c r="D97" s="143"/>
+      <c r="E97" s="143"/>
+      <c r="F97" s="141"/>
+    </row>
+    <row r="98" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="159"/>
       <c r="B98" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="89" t="s">
+      <c r="C98" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="D98" s="90"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="113"/>
-    </row>
-    <row r="99" spans="1:6" s="7" customFormat="1" ht="22.5" customHeight="1">
+      <c r="D98" s="133"/>
+      <c r="E98" s="133"/>
+      <c r="F98" s="142"/>
+    </row>
+    <row r="99" spans="1:6" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="35" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C99" s="157" t="s">
+      <c r="C99" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="125"/>
-      <c r="E99" s="126"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="111"/>
       <c r="F99" s="46" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="7" customFormat="1" ht="70.5" customHeight="1">
+    <row r="100" spans="1:6" s="7" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="72" t="s">
         <v>263</v>
       </c>
       <c r="B100" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C100" s="80" t="s">
+      <c r="C100" s="147" t="s">
         <v>264</v>
       </c>
-      <c r="D100" s="81"/>
-      <c r="E100" s="82"/>
+      <c r="D100" s="148"/>
+      <c r="E100" s="149"/>
       <c r="F100" s="71" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="7" customFormat="1" ht="48.75" customHeight="1">
+    <row r="101" spans="1:6" s="7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="35" t="s">
         <v>129</v>
       </c>
       <c r="B101" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C101" s="124" t="s">
+      <c r="C101" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="D101" s="135"/>
-      <c r="E101" s="136"/>
+      <c r="D101" s="134"/>
+      <c r="E101" s="135"/>
       <c r="F101" s="46"/>
     </row>
-    <row r="103" spans="1:6" ht="14.25" thickBot="1"/>
-    <row r="104" spans="1:6" ht="14.25">
-      <c r="A104" s="100" t="s">
+    <row r="103" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A104" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="B104" s="101"/>
-      <c r="C104" s="101"/>
-      <c r="D104" s="101"/>
-      <c r="E104" s="101"/>
-      <c r="F104" s="102"/>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="B104" s="122"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="123"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="34" t="s">
         <v>122</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="116" t="s">
+      <c r="C105" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="117"/>
-      <c r="E105" s="118"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="126"/>
       <c r="F105" s="48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="132.75" customHeight="1">
+    <row r="106" spans="1:6" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="36" t="s">
         <v>128</v>
       </c>
       <c r="B106" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="124" t="s">
+      <c r="C106" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="D106" s="133"/>
-      <c r="E106" s="134"/>
+      <c r="D106" s="128"/>
+      <c r="E106" s="129"/>
       <c r="F106" s="49"/>
     </row>
-    <row r="107" spans="1:6" ht="168.75" customHeight="1">
+    <row r="107" spans="1:6" ht="168.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="36" t="s">
         <v>128</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="131" t="s">
+      <c r="C107" s="118" t="s">
         <v>255</v>
       </c>
-      <c r="D107" s="132"/>
-      <c r="E107" s="132"/>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
       <c r="F107" s="49"/>
     </row>
-    <row r="108" spans="1:6" ht="176.25" customHeight="1">
+    <row r="108" spans="1:6" ht="176.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B108" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C108" s="119" t="s">
+      <c r="C108" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="D108" s="122"/>
-      <c r="E108" s="123"/>
+      <c r="D108" s="114"/>
+      <c r="E108" s="115"/>
       <c r="F108" s="49"/>
     </row>
-    <row r="109" spans="1:6" ht="378" customHeight="1">
+    <row r="109" spans="1:6" ht="378" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="56" t="s">
         <v>127</v>
       </c>
       <c r="B109" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C109" s="89" t="s">
+      <c r="C109" s="132" t="s">
         <v>257</v>
       </c>
-      <c r="D109" s="90"/>
-      <c r="E109" s="90"/>
+      <c r="D109" s="133"/>
+      <c r="E109" s="133"/>
       <c r="F109" s="49"/>
     </row>
-    <row r="110" spans="1:6" ht="82.5" customHeight="1">
+    <row r="110" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="36" t="s">
         <v>127</v>
       </c>
       <c r="B110" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C110" s="131" t="s">
+      <c r="C110" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="D110" s="132"/>
-      <c r="E110" s="132"/>
+      <c r="D110" s="120"/>
+      <c r="E110" s="120"/>
       <c r="F110" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="159" customHeight="1">
+    <row r="111" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B111" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C111" s="131" t="s">
+      <c r="C111" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="D111" s="87"/>
-      <c r="E111" s="87"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="119"/>
       <c r="F111" s="49" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="243" customHeight="1">
+    <row r="112" spans="1:6" ht="243" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="70" t="s">
         <v>261</v>
       </c>
       <c r="B112" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="127" t="s">
+      <c r="C112" s="116" t="s">
         <v>262</v>
       </c>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="117"/>
       <c r="F112" s="64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="53"/>
       <c r="B113" s="53"/>
-      <c r="C113" s="154"/>
-      <c r="D113" s="155"/>
-      <c r="E113" s="156"/>
+      <c r="C113" s="106"/>
+      <c r="D113" s="107"/>
+      <c r="E113" s="108"/>
       <c r="F113" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A58:A83"/>
+    <mergeCell ref="F95:F98"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="E75:E78"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="D75:D79"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="C4:C5"/>
@@ -5259,79 +5367,15 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="E75:E78"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="D75:D79"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A58:A83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5341,31 +5385,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="143.875" customWidth="1"/>
     <col min="5" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="216.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:1" ht="216.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="33.75" customHeight="1">
+    <row r="4" spans="1:1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="60"/>
     </row>
-    <row r="5" spans="1:1" ht="84" customHeight="1">
+    <row r="5" spans="1:1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="88.5" customHeight="1">
+    <row r="6" spans="1:1" ht="88.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="60" t="s">
         <v>143</v>
       </c>
@@ -5377,446 +5421,446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A94"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>223</v>
       </c>
